--- a/numberSheet/sheetFont.xlsx
+++ b/numberSheet/sheetFont.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="3740" windowWidth="14940" windowHeight="21220" tabRatio="500"/>
+    <workbookView xWindow="2140" yWindow="3740" windowWidth="14940" windowHeight="21220" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +112,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +313,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,9 +325,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="159">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -812,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" activeCellId="8" sqref="A30:L30 A27:L27 A24:L24 A21:L21 A18:L18 A15:L15 A12:L12 A9:L9 A6:L6"/>
     </sheetView>
   </sheetViews>
@@ -4352,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" activeCellId="8" sqref="A6:XFD6 A9:XFD9 A12:XFD12 A15:XFD15 A18:XFD18 A21:XFD21 A24:XFD24 A27:XFD27 A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.1640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
@@ -4462,7 +4470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43" customHeight="1">
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4552,7 +4560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="9" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4642,7 +4650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -4732,7 +4740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="18" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -4912,7 +4920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="21" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -5002,7 +5010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="24" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A24" s="5">
         <v>5</v>
       </c>
@@ -5092,7 +5100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="27" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A27" s="5">
         <v>9</v>
       </c>
@@ -5182,7 +5190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="30" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A30" s="5">
         <v>1</v>
       </c>
